--- a/src/templates/Distribution_Template.xlsx
+++ b/src/templates/Distribution_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymond\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9951777A-4050-4E6E-B42A-F2A4F0CBDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB52251-D73D-40A6-B427-54C6D4F95EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1191" yWindow="3017" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Region</t>
   </si>
@@ -92,13 +92,49 @@
   </si>
   <si>
     <t>No. of PM Distributed</t>
+  </si>
+  <si>
+    <t>Macropropagation</t>
+  </si>
+  <si>
+    <t>Ray Corp</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
+  </si>
+  <si>
+    <t>Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>Calapan</t>
+  </si>
+  <si>
+    <t>Caaguyuan</t>
+  </si>
+  <si>
+    <t>Kutay</t>
+  </si>
+  <si>
+    <t>Juana Tamad</t>
+  </si>
+  <si>
+    <t>JanJan Lang</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Delete this sample data before proceeding.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,40 +148,35 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -197,28 +228,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,30 +484,30 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.61328125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="22.07421875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.53515625" style="1"/>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.15234375" style="3" customWidth="1"/>
+    <col min="4" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="34.921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.61328125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="22.07421875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="30" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="12.53515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
@@ -480,16 +518,16 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
@@ -500,16 +538,16 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
@@ -520,18 +558,18 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -540,62 +578,62 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -613,25 +651,55 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>45060</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -649,7 +717,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -667,7 +735,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -685,7 +753,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -703,7 +771,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -721,7 +789,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -739,7 +807,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -757,61 +825,61 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -829,7 +897,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -847,7 +915,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -865,7 +933,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -883,7 +951,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -901,7 +969,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -919,7 +987,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -937,7 +1005,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -955,8 +1023,8 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -973,8 +1041,8 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -991,8 +1059,8 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1009,7 +1077,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1027,7 +1095,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1045,7 +1113,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1063,7 +1131,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1081,7 +1149,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1099,7 +1167,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1117,7 +1185,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1135,7 +1203,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1153,7 +1221,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1171,7 +1239,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1189,95 +1257,95 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/templates/Distribution_Template.xlsx
+++ b/src/templates/Distribution_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEC1E81-2879-4912-B932-19250431765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82681D55-C77A-4368-B049-7A5EA34A0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2554" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Ray Corp</t>
   </si>
   <si>
-    <t>Regional Office 4</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Delete this sample data before proceeding.</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -695,41 +695,41 @@
         <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="I7" s="10">
         <v>2000</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="10">
         <v>1000</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">

--- a/src/templates/Distribution_Template.xlsx
+++ b/src/templates/Distribution_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82681D55-C77A-4368-B049-7A5EA34A0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B1621D-37EA-4C9A-8E86-DB8A9CCA89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -127,7 +127,13 @@
     <t>Delete this sample data before proceeding.</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
   </si>
 </sst>
 </file>
@@ -514,29 +520,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="2" customWidth="1"/>
     <col min="4" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.61328125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="22.07421875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="12.53515625" style="2"/>
+    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
+    <col min="14" max="17" width="22.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="30" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -555,8 +562,10 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -575,8 +584,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -595,8 +606,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -615,8 +628,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -657,16 +672,22 @@
         <v>12</v>
       </c>
       <c r="N5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="Q5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -683,8 +704,10 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45060</v>
       </c>
@@ -695,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>22</v>
@@ -722,17 +745,23 @@
       <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="8">
+        <v>29</v>
+      </c>
+      <c r="O7" s="7">
+        <v>45060</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -749,8 +778,10 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -767,8 +798,10 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -785,8 +818,10 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -803,8 +838,10 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -821,8 +858,10 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -839,8 +878,10 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -857,8 +898,10 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -874,9 +917,11 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -892,9 +937,11 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -910,9 +957,11 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -928,9 +977,11 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -946,9 +997,11 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -965,8 +1018,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -983,8 +1038,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1001,8 +1058,10 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1019,8 +1078,10 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1037,8 +1098,10 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1055,8 +1118,10 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1073,8 +1138,10 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1091,8 +1158,10 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1109,8 +1178,10 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1127,8 +1198,10 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1145,8 +1218,10 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1163,8 +1238,10 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1181,8 +1258,10 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1199,8 +1278,10 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1217,8 +1298,10 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1235,8 +1318,10 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1253,8 +1338,10 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1271,8 +1358,10 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1289,8 +1378,10 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1307,8 +1398,10 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1325,8 +1418,10 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1343,8 +1438,10 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1361,8 +1458,10 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1379,9 +1478,11 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6z1wtRBhbwOMcrR+qnH3Z0R6pLgOJMew6O9/RuvPeIh/+KdyHIONrkcS9w/BZsP/sTmnwtcn7gI1My/h6nGdiA==" saltValue="q5jJ+LQ9CqOgU4h6woslQw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xadREyK16aum8BEPsA3491Kij+yLckaYLbH/ZoEbdNDy51uCz/HLWx3CjZ0g/FViVy2v8kab9wJ033BtfRpDrQ==" saltValue="5RX6GvQ6C/W8INDW3dEZ1g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="5">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="E2:L2"/>
